--- a/Testdata.xlsx
+++ b/Testdata.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steven/Documents/MHH Bleich/Versuchstierkunde Statistik/Scnupperkurs R/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189FF424-084A-E441-9068-3DC3D950AB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="84" windowWidth="18372" windowHeight="8760" activeTab="6"/>
+    <workbookView xWindow="15320" yWindow="2640" windowWidth="18380" windowHeight="8760" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANOVA1" sheetId="1" r:id="rId1"/>
@@ -14,13 +20,14 @@
     <sheet name="Heatmap Übung" sheetId="5" r:id="rId5"/>
     <sheet name="Happiness" sheetId="9" r:id="rId6"/>
     <sheet name="Tabelle5" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="45">
   <si>
     <t>Control</t>
   </si>
@@ -141,11 +148,26 @@
   <si>
     <t>trt2</t>
   </si>
+  <si>
+    <t>animal_1</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>animal_3</t>
+  </si>
+  <si>
+    <t>animal_2</t>
+  </si>
+  <si>
+    <t>animal_4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,6 +179,7 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -234,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -244,7 +267,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -253,6 +275,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -262,10 +285,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -273,14 +295,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -318,7 +343,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -390,7 +415,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -563,16 +588,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -583,7 +608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>54</v>
       </c>
@@ -594,7 +619,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>23</v>
       </c>
@@ -605,7 +630,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>45</v>
       </c>
@@ -616,7 +641,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>54</v>
       </c>
@@ -627,7 +652,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>45</v>
       </c>
@@ -638,7 +663,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>47</v>
       </c>
@@ -653,16 +678,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -676,7 +701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -690,7 +715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -704,7 +729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -718,7 +743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -732,7 +757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -746,7 +771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -760,7 +785,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -774,7 +799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -788,7 +813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -802,7 +827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -816,7 +841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -830,7 +855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -844,7 +869,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -858,7 +883,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -872,7 +897,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -886,7 +911,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -900,7 +925,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -914,7 +939,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -928,7 +953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -942,7 +967,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -956,7 +981,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -970,7 +995,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -990,19 +1015,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="12" t="s">
         <v>3</v>
@@ -1026,36 +1051,36 @@
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="1">
         <v>34</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="1">
         <v>36</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="1">
         <v>41</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6">
+      <c r="E2" s="1"/>
+      <c r="F2" s="5">
         <v>43</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>98</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="1">
         <v>87</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="1">
         <v>95</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="1">
         <v>99</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>88</v>
       </c>
       <c r="L2" s="1">
@@ -1074,53 +1099,53 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>23</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>19</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>26</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>29</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>25</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>32</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>29</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>26</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>33</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>30</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>33</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>45</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
         <v>35</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="8">
         <v>46</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="9">
         <v>54</v>
       </c>
     </row>
@@ -1135,20 +1160,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1162,7 +1187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1176,7 +1201,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1190,7 +1215,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1204,7 +1229,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1215,7 +1240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1229,7 +1254,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1243,7 +1268,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1257,7 +1282,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1271,7 +1296,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1285,7 +1310,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1299,7 +1324,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1313,7 +1338,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1327,7 +1352,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1341,7 +1366,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1355,7 +1380,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1369,7 +1394,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1383,7 +1408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1397,7 +1422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1411,7 +1436,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1425,7 +1450,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1439,7 +1464,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1453,7 +1478,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1467,7 +1492,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1481,7 +1506,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1495,7 +1520,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1509,7 +1534,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1523,7 +1548,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1537,7 +1562,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1551,7 +1576,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1565,7 +1590,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1585,16 +1610,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1626,7 +1651,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-0.28999999999999998</v>
       </c>
@@ -1658,7 +1683,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.48</v>
       </c>
@@ -1690,711 +1715,711 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.73</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="11">
         <v>0.3</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="11">
         <v>-1.85</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="11">
         <v>-0.17</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="11">
         <v>0.34</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="11">
         <v>0.84</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="11">
         <v>-1.1499999999999999</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="11">
         <v>0.16</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="11">
         <v>-0.13</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="11">
         <v>1.62</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-1.2</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="11">
         <v>0.34</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="11">
         <v>1.64</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="11">
         <v>1</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>-0.46</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="11">
         <v>-0.4</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="11">
         <v>0.03</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="11">
         <v>0.79</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="11">
         <v>-0.36</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="11">
         <v>-2.06</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.52</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="11">
         <v>-2.2799999999999998</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="11">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="11">
         <v>0.51</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <v>0.36</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="11">
         <v>0.34</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="11">
         <v>-0.05</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="11">
         <v>-1.0900000000000001</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="11">
         <v>-0.89</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="11">
         <v>0.71</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-0.37</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="11">
         <v>-0.88</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="11">
         <v>-0.52</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="11">
         <v>-0.97</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>-3</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="11">
         <v>-3</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="11">
         <v>-3</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="11">
         <v>-0.54</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="11">
         <v>-0.54</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="11">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-0.61</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="11">
         <v>0.98</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="11">
         <v>0.79</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="11">
         <v>-3</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="11">
         <v>-3.28</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="11">
         <v>0.02</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="11">
         <v>-0.06</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="11">
         <v>-3</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="11">
         <v>-0.46</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="11">
         <v>-1.56</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-0.99</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="11">
         <v>0.74</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="11">
         <v>-3</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="11">
         <v>-0.62</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="11">
         <v>0.08</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="11">
         <v>1.81</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="11">
         <v>-1.07</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="11">
         <v>1.47</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="11">
         <v>-0.2</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="11">
         <v>0.39</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.22</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="11">
         <v>0.1</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="11">
         <v>-3.1</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="11">
         <v>0.33</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="11">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="11">
         <v>0.18</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="11">
         <v>-1.17</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="11">
         <v>-1.61</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="11">
         <v>-0.05</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="11">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.24</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="11">
         <v>0.17</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="11">
         <v>-3</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="11">
         <v>-1.3</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <v>-4</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="11">
         <v>-0.43</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="11">
         <v>-3.9</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="11">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="11">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-2.15</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="11">
         <v>0.34</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="11">
         <v>-2.9</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="11">
         <v>-0.45</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="11">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="11">
         <v>1.01</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="11">
         <v>-1.23</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="11">
         <v>-1.1299999999999999</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="11">
         <v>1.37</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="11">
         <v>-0.37</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.53</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="11">
         <v>1.03</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="11">
         <v>-3.2</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="11">
         <v>0.02</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="11">
         <v>1.45</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="11">
         <v>-0.83</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="11">
         <v>1.68</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="11">
         <v>0.38</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="11">
         <v>-1.71</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="11">
         <v>1.29</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-0.13</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="11">
         <v>1.62</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="11">
         <v>-3.4</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="11">
         <v>0.33</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="11">
         <v>0.92</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="11">
         <v>-1.47</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="11">
         <v>0.15</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="11">
         <v>-0.36</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="11">
         <v>-1.54</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="11">
         <v>0.17</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-0.36</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="11">
         <v>-2.06</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="11">
         <v>-3</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="11">
         <v>-0.66</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="11">
         <v>-3.9</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="11">
         <v>0.45</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="11">
         <v>-3.8</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="11">
         <v>0.03</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="11">
         <v>1.43</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="11">
         <v>0.79</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-0.89</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="11">
         <v>0.71</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="11">
         <v>-3.1</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="11">
         <v>-0.69</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="11">
         <v>-4.21</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="11">
         <v>0.66</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="11">
         <v>-4.0999999999999996</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="11">
         <v>-0.84</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="11">
         <v>-1.2</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="11">
         <v>-1.44</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-0.54</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="11">
         <v>-0.2</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="11">
         <v>-2.89</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="11">
         <v>-1.02</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="11">
         <v>-3.78</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="11">
         <v>-3.7</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="11">
         <v>-4</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="11">
         <v>0.34</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="11">
         <v>0.88</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="11">
         <v>-2.81</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-0.46</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="11">
         <v>-1.56</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="11">
         <v>-3</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="11">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="11">
         <v>0.38</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="11">
         <v>2.02</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="11">
         <v>0.54</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="11">
         <v>1.26</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="11">
         <v>-1.68</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="11">
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-0.2</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="11">
         <v>0.39</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="11">
         <v>-3.1</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="11">
         <v>-1.62</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="11">
         <v>0.93</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="11">
         <v>1.92</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="11">
         <v>0.43</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="11">
         <v>0.33</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="11">
         <v>1.7</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="11">
         <v>-0.43</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-0.05</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="11">
         <v>-0.1</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="11">
         <v>0.18</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="11">
         <v>-3</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="11">
         <v>-1.24</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="11">
         <v>-0.54</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="11">
         <v>-1.74</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="11">
         <v>-3</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="11">
         <v>-0.15</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="11">
         <v>0.33</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="11">
         <v>-0.3</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="11">
         <v>-0.43</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="11">
         <v>-0.72</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="11">
         <v>-3</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="11">
         <v>-3</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="11">
         <v>-3</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="11">
         <v>-1.27</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="11">
         <v>0.24</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1.37</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="11">
         <v>-0.37</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="11">
         <v>1.01</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="11">
         <v>0.9</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="11">
         <v>0.47</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="11">
         <v>-0.75</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="11">
         <v>-0.83</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="11">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="11">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="11">
         <v>0.94</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-1.71</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="11">
         <v>1.29</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="11">
         <v>-0.83</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="11">
         <v>-1.1499999999999999</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="11">
         <v>0.27</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="11">
         <v>-0.41</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="11">
         <v>-0.75</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="11">
         <v>1.48</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="11">
         <v>-0.43</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="11">
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-1.54</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="11">
         <v>0.17</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="11">
         <v>-1.47</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="11">
         <v>-1.04</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="11">
         <v>-0.67</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="11">
         <v>-0.17</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="11">
         <v>-2.13</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="11">
         <v>0.73</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="11">
         <v>0.3</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="11">
         <v>-1.85</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1.43</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="11">
         <v>0.79</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="11">
         <v>0.45</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="11">
         <v>-0.06</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="11">
         <v>1</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="11">
         <v>0.36</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="11">
         <v>-1.2</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="11">
         <v>0.34</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="11">
         <v>1.64</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-1.2</v>
       </c>
@@ -2426,7 +2451,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.88</v>
       </c>
@@ -2458,7 +2483,7 @@
         <v>-0.52</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>-1.68</v>
       </c>
@@ -2490,7 +2515,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1.7</v>
       </c>
@@ -2522,7 +2547,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-0.15</v>
       </c>
@@ -2554,7 +2579,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-1.27</v>
       </c>
@@ -2592,16 +2617,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -2609,7 +2634,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3.8626474183984101</v>
       </c>
@@ -2617,7 +2642,7 @@
         <v>2.31448898284741</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4.9793813824653599</v>
       </c>
@@ -2625,7 +2650,7 @@
         <v>3.4334897585317399</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4.9239569362253004</v>
       </c>
@@ -2633,7 +2658,7 @@
         <v>4.5993734043357497</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3.2143724388442898</v>
       </c>
@@ -2641,7 +2666,7 @@
         <v>2.7911138028069198</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7.1964092510752398</v>
       </c>
@@ -2649,7 +2674,7 @@
         <v>5.5963982733620199</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3.7296434794552602</v>
       </c>
@@ -2657,7 +2682,7 @@
         <v>2.45855587216119</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4.6745173889212301</v>
       </c>
@@ -2665,7 +2690,7 @@
         <v>3.1929918094624701</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4.4981038207188204</v>
       </c>
@@ -2673,7 +2698,7 @@
         <v>1.9071368330959899</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3.1216305261477801</v>
       </c>
@@ -2681,7 +2706,7 @@
         <v>2.9424498716590501</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4.6399144353345001</v>
       </c>
@@ -2689,7 +2714,7 @@
         <v>3.73794160485342</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4.6328395139426002</v>
       </c>
@@ -2697,7 +2722,7 @@
         <v>3.17540614694795</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2.77317889546975</v>
       </c>
@@ -2705,7 +2730,7 @@
         <v>2.0090464612599201</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7.11947859451175</v>
       </c>
@@ -2713,7 +2738,7 @@
         <v>5.9518140985446699</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7.4666531961411202</v>
       </c>
@@ -2721,7 +2746,7 @@
         <v>5.9605473075384596</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2.11774233123288</v>
       </c>
@@ -2729,7 +2754,7 @@
         <v>1.44579885772475</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2.55916581954807</v>
       </c>
@@ -2737,7 +2762,7 @@
         <v>2.8985831420170398</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2.3547932202927799</v>
       </c>
@@ -2745,7 +2770,7 @@
         <v>1.2311675238051401</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2.3881572475656898</v>
       </c>
@@ -2753,7 +2778,7 @@
         <v>2.3129880546266999</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4.7556802737526596</v>
       </c>
@@ -2761,7 +2786,7 @@
         <v>2.6661160345457802</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1.9942750465124801</v>
       </c>
@@ -2769,7 +2794,7 @@
         <v>2.58472902193729</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>7.3109160256572103</v>
       </c>
@@ -2777,7 +2802,7 @@
         <v>5.7474441038500697</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3.52831895649433</v>
       </c>
@@ -2785,7 +2810,7 @@
         <v>2.5465245868942401</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2.4287516749464002</v>
       </c>
@@ -2793,7 +2818,7 @@
         <v>1.2007855253167901</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3.54274787474424</v>
       </c>
@@ -2801,7 +2826,7 @@
         <v>3.0782933812947699</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5.22720123874024</v>
       </c>
@@ -2809,7 +2834,7 @@
         <v>4.31776091901847</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6.6919931396842003</v>
       </c>
@@ -2817,7 +2842,7 @@
         <v>5.3814787373016397</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3.9004099387675502</v>
       </c>
@@ -2825,7 +2850,7 @@
         <v>3.5652243190984798</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2.2910554781556098</v>
       </c>
@@ -2833,7 +2858,7 @@
         <v>0.95341299560208503</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2.38051270600408</v>
       </c>
@@ -2841,7 +2866,7 @@
         <v>2.16916126054514</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2.5496087763458499</v>
       </c>
@@ -2849,7 +2874,7 @@
         <v>2.0607943111077001</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6.9332958273589602</v>
       </c>
@@ -2857,7 +2882,7 @@
         <v>6.2991012594037397</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1.8556451727636201</v>
       </c>
@@ -2865,7 +2890,7 @@
         <v>1.5903558617939499</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3.5890231383964402</v>
       </c>
@@ -2873,7 +2898,7 @@
         <v>2.2509294135601401</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>6.8264779108576503</v>
       </c>
@@ -2881,7 +2906,7 @@
         <v>5.9142477000008302</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2.07060188334435</v>
       </c>
@@ -2889,7 +2914,7 @@
         <v>2.1918337019796099</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>5.2242052741348699</v>
       </c>
@@ -2897,7 +2922,7 @@
         <v>5.7678143657719696</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2.2431136295199399</v>
       </c>
@@ -2905,7 +2930,7 @@
         <v>0.97288291958483697</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>7.0761663671582902</v>
       </c>
@@ -2913,7 +2938,7 @@
         <v>5.0105774272908796</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4.1906724963337201</v>
       </c>
@@ -2921,7 +2946,7 @@
         <v>2.23966499176615</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1.95648612035438</v>
       </c>
@@ -2929,7 +2954,7 @@
         <v>1.9275788292877101</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5.0617581848055098</v>
       </c>
@@ -2937,7 +2962,7 @@
         <v>3.35807157024712</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3.9821899342350702</v>
       </c>
@@ -2945,7 +2970,7 @@
         <v>2.4000872914664</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3.0650586197152698</v>
       </c>
@@ -2953,7 +2978,7 @@
         <v>3.4079800388457202</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3.6828774902969599</v>
       </c>
@@ -2961,7 +2986,7 @@
         <v>2.5761763070650301</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3.78942929115146</v>
       </c>
@@ -2969,7 +2994,7 @@
         <v>2.4730793774245901</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>5.35871566459537</v>
       </c>
@@ -2977,7 +3002,7 @@
         <v>3.7526594924485202</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5.1961197769269303</v>
       </c>
@@ -2985,7 +3010,7 @@
         <v>4.0876311831198198</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>5.2411895706318301</v>
       </c>
@@ -2993,7 +3018,7 @@
         <v>3.54320365405093</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7.1016195933334503</v>
       </c>
@@ -3001,7 +3026,7 @@
         <v>5.34835294041953</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3.4240210927091499</v>
       </c>
@@ -3009,7 +3034,7 @@
         <v>3.0563766525282099</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2.2533990209922199</v>
       </c>
@@ -3017,7 +3042,7 @@
         <v>1.5584225634242399</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>5.3703369037248203</v>
       </c>
@@ -3025,7 +3050,7 @@
         <v>3.2251327515065502</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>6.2256059995852402</v>
       </c>
@@ -3033,7 +3058,7 @@
         <v>5.0342310090493196</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>5.4828622341155997</v>
       </c>
@@ -3041,7 +3066,7 @@
         <v>3.8574242592365802</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>4.03417210886255</v>
       </c>
@@ -3049,7 +3074,7 @@
         <v>3.6190554898383298</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>6.5102187185548201</v>
       </c>
@@ -3057,7 +3082,7 @@
         <v>4.00453773871644</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>6.0292138620279703</v>
       </c>
@@ -3065,7 +3090,7 @@
         <v>4.8020918067616698</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>6.9491128935478601</v>
       </c>
@@ -3073,7 +3098,7 @@
         <v>4.6588903916232098</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>7.1950372885912701</v>
       </c>
@@ -3081,7 +3106,7 @@
         <v>5.2317029676968501</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2.7573384982533802</v>
       </c>
@@ -3089,7 +3114,7 @@
         <v>2.4806064668831</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>6.95607948163524</v>
       </c>
@@ -3097,7 +3122,7 @@
         <v>5.4981471927748</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>4.6701925783418101</v>
       </c>
@@ -3105,7 +3130,7 @@
         <v>4.5506369584311299</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6.36829266836867</v>
       </c>
@@ -3113,7 +3138,7 @@
         <v>3.5700135671832101</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>6.16668116580695</v>
       </c>
@@ -3121,7 +3146,7 @@
         <v>4.71966533293591</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>6.0741582917980796</v>
       </c>
@@ -3129,7 +3154,7 @@
         <v>4.50310816816621</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>5.4847189653664801</v>
       </c>
@@ -3137,7 +3162,7 @@
         <v>5.0460817748643603</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1.5895747379399801</v>
       </c>
@@ -3145,7 +3170,7 @@
         <v>0.66971594779739696</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1.68047392833978</v>
       </c>
@@ -3153,7 +3178,7 @@
         <v>1.60607235734999</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>5.4999479572288701</v>
       </c>
@@ -3161,7 +3186,7 @@
         <v>4.8266026962381403</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4.0438909032382098</v>
       </c>
@@ -3169,7 +3194,7 @@
         <v>2.2082405157808198</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>5.0050932406447801</v>
       </c>
@@ -3177,7 +3202,7 @@
         <v>4.0564930993445598</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>4.8635817258618799</v>
       </c>
@@ -3185,7 +3210,7 @@
         <v>3.5679052333928398</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1.50627504475415</v>
       </c>
@@ -3193,7 +3218,7 @@
         <v>1.30848726312301</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2.8646638453938098</v>
       </c>
@@ -3201,7 +3226,7 @@
         <v>4.1596092998545098</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>5.8779062940739104</v>
       </c>
@@ -3209,7 +3234,7 @@
         <v>4.63391505682611</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>6.4839837891049701</v>
       </c>
@@ -3217,7 +3242,7 @@
         <v>5.0687478814132598</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4.9380365917459104</v>
       </c>
@@ -3225,7 +3250,7 @@
         <v>3.04079729363343</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>5.6254344214685297</v>
       </c>
@@ -3233,7 +3258,7 @@
         <v>3.80429886107934</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>7.2282652147114304</v>
       </c>
@@ -3241,7 +3266,7 @@
         <v>5.0340037854441597</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>5.3374602939002198</v>
       </c>
@@ -3249,7 +3274,7 @@
         <v>3.7034379316311199</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2.8258265904150899</v>
       </c>
@@ -3257,7 +3282,7 @@
         <v>2.1889381210523799</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>5.9313666732050496</v>
       </c>
@@ -3265,7 +3290,7 @@
         <v>5.5380475293063798</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>3.52025520242751</v>
       </c>
@@ -3273,7 +3298,7 @@
         <v>3.5838751618734301</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>3.23994059348479</v>
       </c>
@@ -3281,7 +3306,7 @@
         <v>3.0968856096524102</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>3.4983863686211398</v>
       </c>
@@ -3289,7 +3314,7 @@
         <v>2.2009821717759102</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>7.1861122576519803</v>
       </c>
@@ -3297,7 +3322,7 @@
         <v>5.1515982892748502</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>4.7191660716198403</v>
       </c>
@@ -3305,7 +3330,7 @@
         <v>5.9509863278725197</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>3.5948019577190302</v>
       </c>
@@ -3313,7 +3338,7 @@
         <v>2.9681871024523399</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>3.23394243232906</v>
       </c>
@@ -3321,7 +3346,7 @@
         <v>2.3995613260922002</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1.5141532234847499</v>
       </c>
@@ -3329,7 +3354,7 @@
         <v>0.85949905180990904</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>4.0025370642542804</v>
       </c>
@@ -3337,7 +3362,7 @@
         <v>1.7759325518184601</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>6.1981037599034599</v>
       </c>
@@ -3345,7 +3370,7 @@
         <v>4.6612612088625998</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2.2806508610956402</v>
       </c>
@@ -3353,7 +3378,7 @@
         <v>0.72722119143533404</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2.1898655123077302</v>
       </c>
@@ -3361,7 +3386,7 @@
         <v>0.77128656722316402</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>3.4341511339880499</v>
       </c>
@@ -3369,7 +3394,7 @@
         <v>3.3487882059211</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>5.9322696765884801</v>
       </c>
@@ -3377,7 +3402,7 @@
         <v>3.96621541073731</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>5.3078394373878801</v>
       </c>
@@ -3385,7 +3410,7 @@
         <v>2.8904474163185898</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>5.6643449091352496</v>
       </c>
@@ -3393,7 +3418,7 @@
         <v>3.7732606523265999</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>7.4392476109787804</v>
       </c>
@@ -3401,7 +3426,7 @@
         <v>6.3596000043470404</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2.1347021469846399</v>
       </c>
@@ -3409,7 +3434,7 @@
         <v>0.268722097401768</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>6.5012747221626297</v>
       </c>
@@ -3417,7 +3442,7 @@
         <v>4.3748323177211601</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>3.6511831744574001</v>
       </c>
@@ -3425,7 +3450,7 @@
         <v>2.1558433231923799</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2.2864953917451198</v>
       </c>
@@ -3433,7 +3458,7 @@
         <v>1.89355685987461</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>4.7488591368310198</v>
       </c>
@@ -3441,7 +3466,7 @@
         <v>4.9029915751225097</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>5.4591607614420399</v>
       </c>
@@ -3449,7 +3474,7 @@
         <v>4.8335064271683397</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>3.43306476529688</v>
       </c>
@@ -3457,7 +3482,7 @@
         <v>3.1722994634224602</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>7.1763996533118197</v>
       </c>
@@ -3465,7 +3490,7 @@
         <v>5.0299516647404099</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>5.5063951173797197</v>
       </c>
@@ -3473,7 +3498,7 @@
         <v>4.2610130031918096</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>3.0976157323457301</v>
       </c>
@@ -3481,7 +3506,7 @@
         <v>1.6723905804843699</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>4.6475559915415898</v>
       </c>
@@ -3489,7 +3514,7 @@
         <v>1.4970241279933201</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1.8283063438720999</v>
       </c>
@@ -3497,7 +3522,7 @@
         <v>1.26548891585784</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>3.5345662347972402</v>
       </c>
@@ -3505,7 +3530,7 @@
         <v>2.6674654346944999</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>4.60617584036663</v>
       </c>
@@ -3513,7 +3538,7 @@
         <v>1.9993255273609001</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>5.3615031335502898</v>
       </c>
@@ -3521,7 +3546,7 @@
         <v>5.2318633127766603</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>6.8793330369517198</v>
       </c>
@@ -3529,7 +3554,7 @@
         <v>5.21140132049364</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>4.31703230598941</v>
       </c>
@@ -3537,7 +3562,7 @@
         <v>3.6616564563743501</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>3.3831635797396298</v>
       </c>
@@ -3545,7 +3570,7 @@
         <v>1.4150346555712701</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>4.9322072323411703</v>
       </c>
@@ -3553,7 +3578,7 @@
         <v>4.93304409176638</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>4.9355965191498399</v>
       </c>
@@ -3561,7 +3586,7 @@
         <v>4.1307782651029603</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2.6015533106401598</v>
       </c>
@@ -3569,7 +3594,7 @@
         <v>2.2822669342082298</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>5.7112635425292</v>
       </c>
@@ -3577,7 +3602,7 @@
         <v>3.9011703337121699</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>6.1175305517390397</v>
       </c>
@@ -3585,7 +3610,7 @@
         <v>4.6919988509916397</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>3.7714151493273702</v>
       </c>
@@ -3593,7 +3618,7 @@
         <v>3.5778006745973898</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>7.1172201102599502</v>
       </c>
@@ -3601,7 +3626,7 @@
         <v>5.56254547499372</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2.1948818508535601</v>
       </c>
@@ -3609,7 +3634,7 @@
         <v>2.3932281195919902</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>5.9520019157789603</v>
       </c>
@@ -3617,7 +3642,7 @@
         <v>3.56472374018866</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>3.9223027629777798</v>
       </c>
@@ -3625,7 +3650,7 @@
         <v>2.25372151555325</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>7.0815890575759104</v>
       </c>
@@ -3633,7 +3658,7 @@
         <v>4.1216477470551496</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>6.9507449967786696</v>
       </c>
@@ -3641,7 +3666,7 @@
         <v>4.1691007587333697</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>3.6608765465207398</v>
       </c>
@@ -3649,7 +3674,7 @@
         <v>3.8238986856692798</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1.78909178031608</v>
       </c>
@@ -3657,7 +3682,7 @@
         <v>0.45837757379286898</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>3.54034109925851</v>
       </c>
@@ -3665,7 +3690,7 @@
         <v>2.5769399593697</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>4.5333951911888999</v>
       </c>
@@ -3673,7 +3698,7 @@
         <v>2.9475314714144498</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>4.8673394420184204</v>
       </c>
@@ -3681,7 +3706,7 @@
         <v>3.7399957959794898</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>4.0560054439120004</v>
       </c>
@@ -3689,7 +3714,7 @@
         <v>3.5714465108010098</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>5.6346434773877299</v>
       </c>
@@ -3697,7 +3722,7 @@
         <v>4.8081504245450502</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>5.4616358815692401</v>
       </c>
@@ -3705,7 +3730,7 @@
         <v>4.0176112083569899</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>3.1861758255399799</v>
       </c>
@@ -3713,7 +3738,7 @@
         <v>1.8398020063859</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>4.4176655570045096</v>
       </c>
@@ -3721,7 +3746,7 @@
         <v>3.46857379278554</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>5.7602892243303403</v>
       </c>
@@ -3729,7 +3754,7 @@
         <v>4.7587854919071697</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>3.7167002493515602</v>
       </c>
@@ -3737,7 +3762,7 @@
         <v>2.3916775190294302</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2.1825615665875402</v>
       </c>
@@ -3745,7 +3770,7 @@
         <v>0.99291736474215497</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>4.2919836896471697</v>
       </c>
@@ -3753,7 +3778,7 @@
         <v>3.16938023951209</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>3.4100302755832699</v>
       </c>
@@ -3761,7 +3786,7 @@
         <v>2.08904235497713</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>3.5810970361344499</v>
       </c>
@@ -3769,7 +3794,7 @@
         <v>1.84367577487797</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>3.5096630933694501</v>
       </c>
@@ -3777,7 +3802,7 @@
         <v>1.6166074351592301</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>6.6602163640782202</v>
       </c>
@@ -3785,7 +3810,7 @@
         <v>5.94934750206047</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>6.2717864303849602</v>
       </c>
@@ -3793,7 +3818,7 @@
         <v>4.9402277769229999</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>3.7350176260806598</v>
       </c>
@@ -3801,7 +3826,7 @@
         <v>2.8412386770118401</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>4.3932083398103696</v>
       </c>
@@ -3809,7 +3834,7 @@
         <v>2.9443913354790499</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>3.5122168972156902</v>
       </c>
@@ -3817,7 +3842,7 @@
         <v>3.0269181751156098</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>6.2397396331652999</v>
       </c>
@@ -3825,7 +3850,7 @@
         <v>5.0978025091262396</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>3.6814855858683599</v>
       </c>
@@ -3833,7 +3858,7 @@
         <v>3.0368199374134202</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>7.2413129992783096</v>
       </c>
@@ -3841,7 +3866,7 @@
         <v>4.6828169902038201</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>6.3453697320073799</v>
       </c>
@@ -3849,7 +3874,7 @@
         <v>4.0008191831256497</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>5.9397415244020504</v>
       </c>
@@ -3857,7 +3882,7 @@
         <v>4.5708011270264803</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2.4593213796615601</v>
       </c>
@@ -3865,7 +3890,7 @@
         <v>2.0427393123787798</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2.5390888913534599</v>
       </c>
@@ -3873,7 +3898,7 @@
         <v>1.7486511242512</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>6.7086037262342897</v>
       </c>
@@ -3881,7 +3906,7 @@
         <v>6.0640130481466903</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>6.8313223253935602</v>
       </c>
@@ -3889,7 +3914,7 @@
         <v>5.1324014687477302</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>5.0826579253189301</v>
       </c>
@@ -3897,7 +3922,7 @@
         <v>3.1133420903531102</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>6.0306073715910298</v>
       </c>
@@ -3905,7 +3930,7 @@
         <v>4.8218102618087402</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>6.5745950317941597</v>
       </c>
@@ -3913,7 +3938,7 @@
         <v>4.17952102324249</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>3.5742969294078599</v>
       </c>
@@ -3921,7 +3946,7 @@
         <v>1.6312611070615599</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>5.5299084316939098</v>
       </c>
@@ -3929,7 +3954,7 @@
         <v>3.8221796430344899</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2.40938174631447</v>
       </c>
@@ -3937,7 +3962,7 @@
         <v>1.85754188647718</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>4.2647895519621697</v>
       </c>
@@ -3945,7 +3970,7 @@
         <v>3.7510892810391598</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>3.5303448275662999</v>
       </c>
@@ -3953,7 +3978,7 @@
         <v>3.1586185943877898</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>6.1431498164311096</v>
       </c>
@@ -3961,7 +3986,7 @@
         <v>4.92713262492307</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>5.1576973772607699</v>
       </c>
@@ -3969,7 +3994,7 @@
         <v>4.6001147568737402</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>4.7108474574051797</v>
       </c>
@@ -3977,7 +4002,7 @@
         <v>2.4083799015632898</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>6.8475152668543204</v>
       </c>
@@ -3985,7 +4010,7 @@
         <v>4.4867036648057699</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>5.4646400925703302</v>
       </c>
@@ -3993,7 +4018,7 @@
         <v>2.7277157122057401</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>4.1765323416329903</v>
       </c>
@@ -4001,7 +4026,7 @@
         <v>3.0207244471578201</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>3.74809321481735</v>
       </c>
@@ -4009,7 +4034,7 @@
         <v>3.74918072735692</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2.2745231143198898</v>
       </c>
@@ -4017,7 +4042,7 @@
         <v>2.31155423708273</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1.5763657218776601</v>
       </c>
@@ -4025,7 +4050,7 @@
         <v>0.98760317153574295</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1.9241336979903301</v>
       </c>
@@ -4033,7 +4058,7 @@
         <v>1.4611444211092099</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>5.9042460434138802</v>
       </c>
@@ -4041,7 +4066,7 @@
         <v>4.5768565303383397</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>5.1890310756862199</v>
       </c>
@@ -4049,7 +4074,7 @@
         <v>4.7675956392326801</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1.87986818002537</v>
       </c>
@@ -4057,7 +4082,7 @@
         <v>0.43817156656984302</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2.5443476457148799</v>
       </c>
@@ -4065,7 +4090,7 @@
         <v>2.3512024684422799</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>3.2213936140760802</v>
       </c>
@@ -4073,7 +4098,7 @@
         <v>3.4531027392893598</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>7.2603741427883497</v>
       </c>
@@ -4081,7 +4106,7 @@
         <v>5.3813984705025399</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>6.4816169617697597</v>
       </c>
@@ -4089,7 +4114,7 @@
         <v>4.8200912473298096</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>5.6884877225384098</v>
       </c>
@@ -4097,7 +4122,7 @@
         <v>4.6587426832043004</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>6.6336188209243101</v>
       </c>
@@ -4105,7 +4130,7 @@
         <v>5.3800702072456197</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>5.9727413509972402</v>
       </c>
@@ -4113,7 +4138,7 @@
         <v>3.3159894761680899</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>3.8977379165589801</v>
       </c>
@@ -4121,7 +4146,7 @@
         <v>2.7997474868042098</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>6.4612433211877898</v>
       </c>
@@ -4129,7 +4154,7 @@
         <v>4.2067549118683303</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>6.6280363015830499</v>
       </c>
@@ -4137,7 +4162,7 @@
         <v>4.40266319466238</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>3.1189591954462199</v>
       </c>
@@ -4145,7 +4170,7 @@
         <v>2.7691181264175202</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>4.6959636141546097</v>
       </c>
@@ -4153,7 +4178,7 @@
         <v>2.78424454536</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1.57369371503592</v>
       </c>
@@ -4161,7 +4186,7 @@
         <v>0.68809058142898205</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>3.6703769308514902</v>
       </c>
@@ -4169,7 +4194,7 @@
         <v>3.47649914026504</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>7.1944069596938798</v>
       </c>
@@ -4177,7 +4202,7 @@
         <v>5.8361966559465701</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>1.7804786581546099</v>
       </c>
@@ -4185,7 +4210,7 @@
         <v>2.0039260930555698</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2.14235955476761</v>
       </c>
@@ -4193,7 +4218,7 @@
         <v>0.97133245418707403</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>3.6564859896898301</v>
       </c>
@@ -4201,7 +4226,7 @@
         <v>2.8576143643142999</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2.09035414131358</v>
       </c>
@@ -4209,7 +4234,7 @@
         <v>1.8521177111389699</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>3.3630971722304799</v>
       </c>
@@ -4217,7 +4242,7 @@
         <v>3.5151791767886902</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2.4231438520364499</v>
       </c>
@@ -4225,7 +4250,7 @@
         <v>2.1005524940631699</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>7.1115836421959102</v>
       </c>
@@ -4233,7 +4258,7 @@
         <v>6.0864782839024603</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>3.0399418557062701</v>
       </c>
@@ -4241,7 +4266,7 @@
         <v>4.0838211612500404</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2.37323203543201</v>
       </c>
@@ -4249,7 +4274,7 @@
         <v>1.52478229133559</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>1.9845636896789101</v>
       </c>
@@ -4257,7 +4282,7 @@
         <v>2.5795165151106301</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2.62848285259679</v>
       </c>
@@ -4265,7 +4290,7 @@
         <v>1.6192261269377899</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>7.1367599708028102</v>
       </c>
@@ -4273,7 +4298,7 @@
         <v>5.5066215370552101</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>3.1049183537252198</v>
       </c>
@@ -4281,7 +4306,7 @@
         <v>1.09599927077992</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>1.5586567511782099</v>
       </c>
@@ -4289,7 +4314,7 @@
         <v>0.96852732709725897</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>7.4784466177225104</v>
       </c>
@@ -4297,7 +4322,7 @@
         <v>4.8777255383413198</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2.8139000474475302</v>
       </c>
@@ -4305,7 +4330,7 @@
         <v>1.7596986672917401</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>5.7445396436378404</v>
       </c>
@@ -4313,7 +4338,7 @@
         <v>5.0322110335913299</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>6.5409883568063396</v>
       </c>
@@ -4321,7 +4346,7 @@
         <v>5.7138022938063804</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>6.5627941321581602</v>
       </c>
@@ -4329,7 +4354,7 @@
         <v>4.7958428673854101</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>5.4701249948702797</v>
       </c>
@@ -4337,7 +4362,7 @@
         <v>4.6602899611623601</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2.0851305252872399</v>
       </c>
@@ -4345,7 +4370,7 @@
         <v>2.7403954072534198</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>4.58957249717787</v>
       </c>
@@ -4353,7 +4378,7 @@
         <v>4.2505680644931099</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>5.0745017691515404</v>
       </c>
@@ -4361,7 +4386,7 @@
         <v>3.94101932161443</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>7.4635098134167501</v>
       </c>
@@ -4369,7 +4394,7 @@
         <v>4.5034453799876601</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>5.8539057634770897</v>
       </c>
@@ -4377,7 +4402,7 @@
         <v>4.6332287323833601</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>3.7645399617031199</v>
       </c>
@@ -4385,7 +4410,7 @@
         <v>4.0308649380166903</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>7.0627921102568498</v>
       </c>
@@ -4393,7 +4418,7 @@
         <v>6.86338795095807</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>6.3773764260113204</v>
       </c>
@@ -4401,7 +4426,7 @@
         <v>5.0794758985647501</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>1.92086276365444</v>
       </c>
@@ -4409,7 +4434,7 @@
         <v>1.6252683929052301</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>7.3642133781686399</v>
       </c>
@@ -4417,7 +4442,7 @@
         <v>6.6182798420734299</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>6.5357988607138404</v>
       </c>
@@ -4425,7 +4450,7 @@
         <v>4.6569985718846301</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>7.30090272473171</v>
       </c>
@@ -4433,7 +4458,7 @@
         <v>6.00498747478251</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>3.0372317237779498</v>
       </c>
@@ -4441,7 +4466,7 @@
         <v>2.41063556603061</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>6.7032668273895997</v>
       </c>
@@ -4449,7 +4474,7 @@
         <v>4.2612199723049597</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>1.92799668386579</v>
       </c>
@@ -4457,7 +4482,7 @@
         <v>1.0656238094886501</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>4.2235535779036599</v>
       </c>
@@ -4465,7 +4490,7 @@
         <v>2.2957001419233398</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2.9227063204161801</v>
       </c>
@@ -4473,7 +4498,7 @@
         <v>1.9195111029104599</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>4.4271086049266204</v>
       </c>
@@ -4481,7 +4506,7 @@
         <v>3.5813810383761799</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2.0705624101683502</v>
       </c>
@@ -4489,7 +4514,7 @@
         <v>0.62894206107495298</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>5.2240702291019296</v>
       </c>
@@ -4497,7 +4522,7 @@
         <v>3.34410837245363</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>7.1618728749454004</v>
       </c>
@@ -4505,7 +4530,7 @@
         <v>6.1604341014132196</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>2.2106964779086402</v>
       </c>
@@ -4513,7 +4538,7 @@
         <v>2.8612744436493101</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>7.2070596995763498</v>
       </c>
@@ -4521,7 +4546,7 @@
         <v>4.2094705729881703</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>2.1840849914587999</v>
       </c>
@@ -4529,7 +4554,7 @@
         <v>1.22629813434264</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>4.4149984661489698</v>
       </c>
@@ -4537,7 +4562,7 @@
         <v>4.7933251599152804</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>5.0148096685297796</v>
       </c>
@@ -4545,7 +4570,7 @@
         <v>3.3137965162017999</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>2.6020371196791499</v>
       </c>
@@ -4553,7 +4578,7 @@
         <v>2.1526984325679099</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2.9170486712828301</v>
       </c>
@@ -4561,7 +4586,7 @@
         <v>2.92368387386963</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>6.2443416346795901</v>
       </c>
@@ -4569,7 +4594,7 @@
         <v>3.4520672334659501</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>6.8596544936299297</v>
       </c>
@@ -4577,7 +4602,7 @@
         <v>4.2583115292185099</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>2.3712304243817899</v>
       </c>
@@ -4585,7 +4610,7 @@
         <v>3.9610327661926199</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>5.9640575903467798</v>
       </c>
@@ -4593,7 +4618,7 @@
         <v>3.4277231628448002</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>7.1536740884184802</v>
       </c>
@@ -4601,7 +4626,7 @@
         <v>4.7209873382907102</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>2.28989742044359</v>
       </c>
@@ -4609,7 +4634,7 @@
         <v>1.5719498128834699</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>6.3762280326336596</v>
       </c>
@@ -4617,7 +4642,7 @@
         <v>6.1869456094734403</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>3.5405042991042102</v>
       </c>
@@ -4625,7 +4650,7 @@
         <v>3.5527369641353999</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>3.13982571987435</v>
       </c>
@@ -4633,7 +4658,7 @@
         <v>1.24578594443855</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>6.4607423013076204</v>
       </c>
@@ -4641,7 +4666,7 @@
         <v>3.42691165170281</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>2.64134846208617</v>
       </c>
@@ -4649,7 +4674,7 @@
         <v>1.8771470429714101</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>2.00221355259418</v>
       </c>
@@ -4657,7 +4682,7 @@
         <v>1.8178891134458499</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>6.3914281348697797</v>
       </c>
@@ -4665,7 +4690,7 @@
         <v>5.2399094978177496</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>2.7637197724543499</v>
       </c>
@@ -4673,7 +4698,7 @@
         <v>1.3840441115675299</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>6.8312575486488596</v>
       </c>
@@ -4681,7 +4706,7 @@
         <v>3.83797776845087</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>3.8272545249201402</v>
       </c>
@@ -4689,7 +4714,7 @@
         <v>2.3216976898645898</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>3.7706708977930199</v>
       </c>
@@ -4697,7 +4722,7 @@
         <v>3.3115782296606202</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>3.1598548921756402</v>
       </c>
@@ -4705,7 +4730,7 @@
         <v>3.0573878398074799</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>5.0994171565398601</v>
       </c>
@@ -4713,7 +4738,7 @@
         <v>4.7370459536276597</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>5.6103908247314402</v>
       </c>
@@ -4721,7 +4746,7 @@
         <v>4.5909704606867798</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>1.8563717524521099</v>
       </c>
@@ -4729,7 +4754,7 @@
         <v>0.65424214776211997</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>5.3637295807711798</v>
       </c>
@@ -4737,7 +4762,7 @@
         <v>3.9811277394736</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>2.3361335629597302</v>
       </c>
@@ -4745,7 +4770,7 @@
         <v>2.3362760326579299</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>4.97585136769339</v>
       </c>
@@ -4753,7 +4778,7 @@
         <v>4.5406361468377501</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>2.6295467745512702</v>
       </c>
@@ -4761,7 +4786,7 @@
         <v>2.1927448631895401</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>2.6464580968022302</v>
       </c>
@@ -4769,7 +4794,7 @@
         <v>1.7881763414160301</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>3.8598923874087601</v>
       </c>
@@ -4777,7 +4802,7 @@
         <v>2.7194321795946301</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>4.1215306213125604</v>
       </c>
@@ -4785,7 +4810,7 @@
         <v>4.2126973388239</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>6.3859406397678002</v>
       </c>
@@ -4793,7 +4818,7 @@
         <v>4.47727139172689</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>3.8427096786908801</v>
       </c>
@@ -4801,7 +4826,7 @@
         <v>2.4688599941396601</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>4.9905485375784302</v>
       </c>
@@ -4809,7 +4834,7 @@
         <v>3.4517725377152702</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>3.4005969408899501</v>
       </c>
@@ -4817,7 +4842,7 @@
         <v>0.68692084864127001</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>3.82011537160724</v>
       </c>
@@ -4825,7 +4850,7 @@
         <v>2.2467457068532402</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>1.90949915349483</v>
       </c>
@@ -4833,7 +4858,7 @@
         <v>1.6276950894892701</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>2.8584641232155299</v>
       </c>
@@ -4841,7 +4866,7 @@
         <v>2.45320906080177</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>7.4515006500296304</v>
       </c>
@@ -4849,7 +4874,7 @@
         <v>4.1099446533061199</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>3.3542521074414302</v>
       </c>
@@ -4857,7 +4882,7 @@
         <v>2.57259820309925</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>6.7078252024948597</v>
       </c>
@@ -4865,7 +4890,7 @@
         <v>4.8104240582401498</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>6.3259060671552998</v>
       </c>
@@ -4873,7 +4898,7 @@
         <v>4.8274163035261104</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>1.93118067691103</v>
       </c>
@@ -4881,7 +4906,7 @@
         <v>2.46576112842346</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>5.1285452269949001</v>
       </c>
@@ -4889,7 +4914,7 @@
         <v>3.7573789869240799</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>4.2782098716124901</v>
       </c>
@@ -4897,7 +4922,7 @@
         <v>3.6913481886008501</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>1.5794702880084499</v>
       </c>
@@ -4905,7 +4930,7 @@
         <v>1.9818099105957401</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>2.9076821766793701</v>
       </c>
@@ -4913,7 +4938,7 @@
         <v>1.41022956743426</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>5.6447140895761496</v>
       </c>
@@ -4921,7 +4946,7 @@
         <v>3.7543014197104099</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>3.5711754360236201</v>
       </c>
@@ -4929,7 +4954,7 @@
         <v>4.2452155970692598</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2.3451075665652801</v>
       </c>
@@ -4937,7 +4962,7 @@
         <v>1.4378767241526</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>5.8451970275491503</v>
       </c>
@@ -4945,7 +4970,7 @@
         <v>4.15988714358891</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>5.2984804082661903</v>
       </c>
@@ -4953,7 +4978,7 @@
         <v>3.5148917815810599</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>3.4346999251283701</v>
       </c>
@@ -4961,7 +4986,7 @@
         <v>2.7144980381685202</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>1.8659952320158499</v>
       </c>
@@ -4969,7 +4994,7 @@
         <v>1.3573731356937999</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>5.0956154912710199</v>
       </c>
@@ -4977,7 +5002,7 @@
         <v>5.6384603865871901</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>1.5308077270165099</v>
       </c>
@@ -4985,7 +5010,7 @@
         <v>2.4214646692689401</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>1.6183114587329299</v>
       </c>
@@ -4993,7 +5018,7 @@
         <v>1.51120510776249</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>6.6876772181130901</v>
       </c>
@@ -5001,7 +5026,7 @@
         <v>5.52289166781273</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>7.3472455227747604</v>
       </c>
@@ -5009,7 +5034,7 @@
         <v>4.3966223188020699</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>5.9838456963188902</v>
       </c>
@@ -5017,7 +5042,7 @@
         <v>3.9884528346478798</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>5.1960823726840299</v>
       </c>
@@ -5025,7 +5050,7 @@
         <v>3.31760677959215</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>4.1930074305273601</v>
       </c>
@@ -5033,7 +5058,7 @@
         <v>2.7796826270437198</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>2.3476875512860702</v>
       </c>
@@ -5041,7 +5066,7 @@
         <v>0.84650552573486704</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>4.7094893781468299</v>
       </c>
@@ -5049,7 +5074,7 @@
         <v>2.4579217072465198</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2.3071977104991701</v>
       </c>
@@ -5057,7 +5082,7 @@
         <v>3.5096046880881802</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>2.7307688207365599</v>
       </c>
@@ -5065,7 +5090,7 @@
         <v>2.6469045368306401</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>3.8825135054066799</v>
       </c>
@@ -5073,7 +5098,7 @@
         <v>2.9779167244931202</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>3.5743936453945899</v>
       </c>
@@ -5081,7 +5106,7 @@
         <v>1.42445054844615</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>4.1595763843506601</v>
       </c>
@@ -5089,7 +5114,7 @@
         <v>1.7903423169916299</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>1.54463433288038</v>
       </c>
@@ -5097,7 +5122,7 @@
         <v>1.6446366032781501</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>3.38389667356387</v>
       </c>
@@ -5105,7 +5130,7 @@
         <v>0.73163628970391703</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>3.6147451833821802</v>
       </c>
@@ -5113,7 +5138,7 @@
         <v>2.90178859153712</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>6.5038823238574004</v>
       </c>
@@ -5121,7 +5146,7 @@
         <v>4.3171331575155598</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>1.84841255843639</v>
       </c>
@@ -5129,7 +5154,7 @@
         <v>2.0973690603889299</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>4.4203119040466801</v>
       </c>
@@ -5137,7 +5162,7 @@
         <v>4.3915929759730101</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>6.4771532365120903</v>
       </c>
@@ -5145,7 +5170,7 @@
         <v>5.3139569031442102</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>6.5614199847914296</v>
       </c>
@@ -5153,7 +5178,7 @@
         <v>6.2813701909932798</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>7.18090719357133</v>
       </c>
@@ -5161,7 +5186,7 @@
         <v>5.60796663022193</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>2.8090907810255898</v>
       </c>
@@ -5169,7 +5194,7 @@
         <v>2.9468704348362</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>5.6862054099328798</v>
       </c>
@@ -5177,7 +5202,7 @@
         <v>3.8727888476358099</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>4.8003437463194096</v>
       </c>
@@ -5185,7 +5210,7 @@
         <v>2.8428683509021799</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>2.4129121592268299</v>
       </c>
@@ -5193,7 +5218,7 @@
         <v>1.4606163301703201</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>2.9257035199552801</v>
       </c>
@@ -5201,7 +5226,7 @@
         <v>3.7528247657345299</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>3.1741757635027201</v>
       </c>
@@ -5209,7 +5234,7 @@
         <v>3.12660323905035</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>2.6855296287685602</v>
       </c>
@@ -5217,7 +5242,7 @@
         <v>2.8211926449981299</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>2.1244292417541102</v>
       </c>
@@ -5225,7 +5250,7 @@
         <v>2.7349600560633398</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>2.6940221269614999</v>
       </c>
@@ -5233,7 +5258,7 @@
         <v>2.19759211976013</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>4.2308887937106201</v>
       </c>
@@ -5241,7 +5266,7 @@
         <v>4.1555408644837604</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>5.3505156640894702</v>
       </c>
@@ -5249,7 +5274,7 @@
         <v>4.0782088380799104</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>5.0915795057080704</v>
       </c>
@@ -5257,7 +5282,7 @@
         <v>4.4569636104716697</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>6.2503022141754601</v>
       </c>
@@ -5265,7 +5290,7 @@
         <v>4.9392589597828298</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>5.3246325608342904</v>
       </c>
@@ -5273,7 +5298,7 @@
         <v>3.7305699575918299</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>2.0484977108426401</v>
       </c>
@@ -5281,7 +5306,7 @@
         <v>2.5750548565466298</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>2.3813852453604301</v>
       </c>
@@ -5289,7 +5314,7 @@
         <v>2.1763221453520298</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>6.9199429708532998</v>
       </c>
@@ -5297,7 +5322,7 @@
         <v>6.2369553119788499</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>2.3595077935606201</v>
       </c>
@@ -5305,7 +5330,7 @@
         <v>0.89873280299024105</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>4.5457074623554901</v>
       </c>
@@ -5313,7 +5338,7 @@
         <v>3.6294243867757499</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>7.3105026357807201</v>
       </c>
@@ -5321,7 +5346,7 @@
         <v>5.9233460710777202</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>1.69746369123459</v>
       </c>
@@ -5329,7 +5354,7 @@
         <v>0.546190176386527</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>4.48358581960201</v>
       </c>
@@ -5337,7 +5362,7 @@
         <v>3.0314970656040701</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>2.07995533989742</v>
       </c>
@@ -5345,7 +5370,7 @@
         <v>2.8478168425297201</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>4.8343973862938601</v>
       </c>
@@ -5353,7 +5378,7 @@
         <v>4.5169605896786003</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>4.7613444789312798</v>
       </c>
@@ -5361,7 +5386,7 @@
         <v>4.5916970104496801</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>4.2700365507043898</v>
       </c>
@@ -5369,7 +5394,7 @@
         <v>3.1577650912522901</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>5.3797954232431904</v>
       </c>
@@ -5377,7 +5402,7 @@
         <v>4.2879996803407501</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>4.2555572250857896</v>
       </c>
@@ -5385,7 +5410,7 @@
         <v>3.6188297892899501</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>4.2164684808813</v>
       </c>
@@ -5393,7 +5418,7 @@
         <v>3.2007978604136702</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>5.6937250611372301</v>
       </c>
@@ -5401,7 +5426,7 @@
         <v>3.9997030074416098</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>2.9965207027271399</v>
       </c>
@@ -5409,7 +5434,7 @@
         <v>1.6622531988623801</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>2.8494582138955602</v>
       </c>
@@ -5417,7 +5442,7 @@
         <v>2.3915499985873501</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>3.74497363669798</v>
       </c>
@@ -5425,7 +5450,7 @@
         <v>3.0676094532142799</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>3.44151328783482</v>
       </c>
@@ -5433,7 +5458,7 @@
         <v>2.0175135878484598</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>4.2800753801129803</v>
       </c>
@@ -5441,7 +5466,7 @@
         <v>3.64088397009386</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>1.82445571850985</v>
       </c>
@@ -5449,7 +5474,7 @@
         <v>0.26604366308760202</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>2.8892420022748402</v>
       </c>
@@ -5457,7 +5482,7 @@
         <v>1.29542729438059</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>2.1699774982407698</v>
       </c>
@@ -5465,7 +5490,7 @@
         <v>1.8533476125399899</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>6.97689869999886</v>
       </c>
@@ -5473,7 +5498,7 @@
         <v>5.36723610296883</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>2.6837312285788402</v>
       </c>
@@ -5481,7 +5506,7 @@
         <v>2.4662923438331199</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>1.6511560915969301</v>
       </c>
@@ -5489,7 +5514,7 @@
         <v>1.7235935610764701</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>4.41632057586685</v>
       </c>
@@ -5497,7 +5522,7 @@
         <v>4.3072884159425699</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>3.8810986918397199</v>
       </c>
@@ -5505,7 +5530,7 @@
         <v>3.1563674355146101</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>3.7845605523325498</v>
       </c>
@@ -5513,7 +5538,7 @@
         <v>1.69045809453004</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>6.2672605002299004</v>
       </c>
@@ -5521,7 +5546,7 @@
         <v>5.0855230114063303</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>1.8903267597779601</v>
       </c>
@@ -5529,7 +5554,7 @@
         <v>2.48162387022579</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>1.7620581784285601</v>
       </c>
@@ -5537,7 +5562,7 @@
         <v>1.3533173406827299</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>6.0891625117510602</v>
       </c>
@@ -5545,7 +5570,7 @@
         <v>5.27529415127748</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>6.3742538625374401</v>
       </c>
@@ -5553,7 +5578,7 @@
         <v>3.6702915261113098</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>6.3924831245094502</v>
       </c>
@@ -5561,7 +5586,7 @@
         <v>3.6963904095712099</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>3.20431634271517</v>
       </c>
@@ -5569,7 +5594,7 @@
         <v>2.6798873177165001</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>2.9081469113007201</v>
       </c>
@@ -5577,7 +5602,7 @@
         <v>2.3635646691043499</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>2.3499520691111702</v>
       </c>
@@ -5585,7 +5610,7 @@
         <v>1.4385961047632601</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>7.0043988372199202</v>
       </c>
@@ -5593,7 +5618,7 @@
         <v>5.3624482630070398</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>3.4835991170257299</v>
       </c>
@@ -5601,7 +5626,7 @@
         <v>2.3253092260127799</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>2.5174638032913199</v>
       </c>
@@ -5609,7 +5634,7 @@
         <v>1.5295609440257201</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>5.6984513411298403</v>
       </c>
@@ -5617,7 +5642,7 @@
         <v>4.0357270190475596</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>4.3819232820533198</v>
       </c>
@@ -5625,7 +5650,7 @@
         <v>3.5503371842624301</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>4.7720590895041797</v>
       </c>
@@ -5633,7 +5658,7 @@
         <v>3.55460031663999</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>5.39501645090058</v>
       </c>
@@ -5641,7 +5666,7 @@
         <v>4.19972852584098</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>5.4564413088373804</v>
       </c>
@@ -5649,7 +5674,7 @@
         <v>3.1354751535263601</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>1.78835992282256</v>
       </c>
@@ -5657,7 +5682,7 @@
         <v>1.1452958126669499</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>3.1125927837565501</v>
       </c>
@@ -5665,7 +5690,7 @@
         <v>3.5398541272253601</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>5.0809684479609096</v>
       </c>
@@ -5673,7 +5698,7 @@
         <v>3.82220396398113</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>4.8513139178976399</v>
       </c>
@@ -5681,7 +5706,7 @@
         <v>3.8355776461537299</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>6.6074721124023199</v>
       </c>
@@ -5689,7 +5714,7 @@
         <v>5.68375056087792</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>3.1268561789765998</v>
       </c>
@@ -5697,7 +5722,7 @@
         <v>2.5174008758571498</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>6.5627628327347303</v>
       </c>
@@ -5705,7 +5730,7 @@
         <v>4.3246603843192704</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>2.3430754733271901</v>
       </c>
@@ -5713,7 +5738,7 @@
         <v>2.9586968005824401</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>1.60003301734105</v>
       </c>
@@ -5721,7 +5746,7 @@
         <v>1.68099713335246</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>5.2481755362823597</v>
       </c>
@@ -5729,7 +5754,7 @@
         <v>4.2535013038604301</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>3.0354613163508501</v>
       </c>
@@ -5737,7 +5762,7 @@
         <v>2.2603956934235701</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>4.9473721473477799</v>
       </c>
@@ -5745,7 +5770,7 @@
         <v>3.6154710534578598</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>1.57495361566544</v>
       </c>
@@ -5753,7 +5778,7 @@
         <v>1.5022116261833101</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>5.7417248846031699</v>
       </c>
@@ -5761,7 +5786,7 @@
         <v>3.7764846305139899</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>5.9104752698913199</v>
       </c>
@@ -5769,7 +5794,7 @@
         <v>3.2010424346912498</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>6.1950039868243003</v>
       </c>
@@ -5777,7 +5802,7 @@
         <v>4.0583116160777504</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>5.4925897247158</v>
       </c>
@@ -5785,7 +5810,7 @@
         <v>4.1052245166244701</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>4.5172445741482097</v>
       </c>
@@ -5793,7 +5818,7 @@
         <v>3.7220976386476901</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>4.3117859973572203</v>
       </c>
@@ -5801,7 +5826,7 @@
         <v>3.82227031270074</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>4.6337413704022801</v>
       </c>
@@ -5809,7 +5834,7 @@
         <v>3.7066609808003599</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>7.4238324975594896</v>
       </c>
@@ -5817,7 +5842,7 @@
         <v>4.9096884686809501</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>2.5077685480937402</v>
       </c>
@@ -5825,7 +5850,7 @@
         <v>2.1557336262240501</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>5.7125866594724402</v>
       </c>
@@ -5833,7 +5858,7 @@
         <v>5.7437360812335099</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>6.8223769096657598</v>
       </c>
@@ -5841,7 +5866,7 @@
         <v>4.3375714519323001</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>3.3675918183289499</v>
       </c>
@@ -5849,7 +5874,7 @@
         <v>2.5824166395017398</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>6.32019131071866</v>
       </c>
@@ -5857,7 +5882,7 @@
         <v>4.2843055578588096</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>2.2986433650367002</v>
       </c>
@@ -5865,7 +5890,7 @@
         <v>2.96216820958049</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>4.6998958792537504</v>
       </c>
@@ -5873,7 +5898,7 @@
         <v>3.9904158936375702</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>7.2467548311687997</v>
       </c>
@@ -5881,7 +5906,7 @@
         <v>5.8901486965794803</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>5.6669511529617003</v>
       </c>
@@ -5889,7 +5914,7 @@
         <v>3.6885395180327598</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>4.0874619819223899</v>
       </c>
@@ -5897,7 +5922,7 @@
         <v>3.2178473632901201</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>3.3145560706034298</v>
       </c>
@@ -5905,7 +5930,7 @@
         <v>2.22047032745549</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>6.7683362276293302</v>
       </c>
@@ -5913,7 +5938,7 @@
         <v>5.9102848779838899</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>5.4057490602135703</v>
       </c>
@@ -5921,7 +5946,7 @@
         <v>4.8530325187822996</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>3.6322833895683302</v>
       </c>
@@ -5929,7 +5954,7 @@
         <v>3.80297363286464</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>4.9249496874399501</v>
       </c>
@@ -5937,7 +5962,7 @@
         <v>3.0921646478057299</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>3.6992055214941502</v>
       </c>
@@ -5945,7 +5970,7 @@
         <v>3.23331374691575</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>6.8969292892143104</v>
       </c>
@@ -5953,7 +5978,7 @@
         <v>5.2654789575979501</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>7.0255176946520796</v>
       </c>
@@ -5961,7 +5986,7 @@
         <v>4.8115333799062396</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>6.4756252169609096</v>
       </c>
@@ -5969,7 +5994,7 @@
         <v>5.3680411729255804</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>1.6393805695697701</v>
       </c>
@@ -5977,7 +6002,7 @@
         <v>1.7987183032966301</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>6.6359541155397901</v>
       </c>
@@ -5985,7 +6010,7 @@
         <v>4.7600143328184901</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>4.6044092145748401</v>
       </c>
@@ -5993,7 +6018,7 @@
         <v>3.4158064791915099</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>7.0320570990443203</v>
       </c>
@@ -6001,7 +6026,7 @@
         <v>5.0401745816928498</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>3.1023460426367802</v>
       </c>
@@ -6009,7 +6034,7 @@
         <v>1.9656359327833199</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>3.04411420365795</v>
       </c>
@@ -6017,7 +6042,7 @@
         <v>1.8719578540222399</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>6.1828992320224598</v>
       </c>
@@ -6025,7 +6050,7 @@
         <v>5.3235073891415503</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>5.41505292803049</v>
       </c>
@@ -6033,7 +6058,7 @@
         <v>4.5011583359718301</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>3.8606959814205801</v>
       </c>
@@ -6041,7 +6066,7 @@
         <v>2.4350948560231398</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>5.6953388121910402</v>
       </c>
@@ -6049,7 +6074,7 @@
         <v>4.5532165478240998</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>6.3649189397692698</v>
       </c>
@@ -6057,7 +6082,7 @@
         <v>4.36170927009388</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>2.0990934669971502</v>
       </c>
@@ -6065,7 +6090,7 @@
         <v>1.4787871994894299</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>3.4989675180986501</v>
       </c>
@@ -6073,7 +6098,7 @@
         <v>2.7685231289118901</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>5.9946022820659</v>
       </c>
@@ -6081,7 +6106,7 @@
         <v>3.9606363714671899</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>6.8409309480339298</v>
       </c>
@@ -6089,7 +6114,7 @@
         <v>5.9157813950033002</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>5.75494099454954</v>
       </c>
@@ -6097,7 +6122,7 @@
         <v>3.98019535045613</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>6.9267209689132896</v>
       </c>
@@ -6105,7 +6130,7 @@
         <v>4.7082029883230501</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>1.62381373671815</v>
       </c>
@@ -6113,7 +6138,7 @@
         <v>1.4166610554177601</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>5.9063584841787797</v>
       </c>
@@ -6121,7 +6146,7 @@
         <v>4.3284170974030003</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>7.4815213805995899</v>
       </c>
@@ -6129,7 +6154,7 @@
         <v>6.1962955458724602</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>2.60785315884277</v>
       </c>
@@ -6137,7 +6162,7 @@
         <v>1.9459610525879401</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>1.6606504968367499</v>
       </c>
@@ -6145,7 +6170,7 @@
         <v>0.698459964938276</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>6.2355853551998699</v>
       </c>
@@ -6153,7 +6178,7 @@
         <v>5.1354553164740899</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>2.9659917214885398</v>
       </c>
@@ -6161,7 +6186,7 @@
         <v>1.5603553757432</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>6.2792650661431297</v>
       </c>
@@ -6169,7 +6194,7 @@
         <v>4.2349912150472697</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>2.2204038631171001</v>
       </c>
@@ -6177,7 +6202,7 @@
         <v>0.68890923081742605</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>2.0709502464160301</v>
       </c>
@@ -6185,7 +6210,7 @@
         <v>0.68584887435652997</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>2.86841862648726</v>
       </c>
@@ -6193,7 +6218,7 @@
         <v>1.79175356811399</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>3.9281409038230799</v>
       </c>
@@ -6201,7 +6226,7 @@
         <v>3.2274721728553901</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>6.83574772579595</v>
       </c>
@@ -6209,7 +6234,7 @@
         <v>5.1593312401825804</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>3.4371647215448302</v>
       </c>
@@ -6217,7 +6242,7 @@
         <v>3.802970672606</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>5.13956521824002</v>
       </c>
@@ -6225,7 +6250,7 @@
         <v>4.2160575916220102</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>6.0045212963596004</v>
       </c>
@@ -6233,7 +6258,7 @@
         <v>4.9324099778522399</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>3.28316689515486</v>
       </c>
@@ -6241,7 +6266,7 @@
         <v>2.23344058374244</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>5.9191292594186997</v>
       </c>
@@ -6249,7 +6274,7 @@
         <v>4.3782594504475201</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>3.91019854741171</v>
       </c>
@@ -6257,7 +6282,7 @@
         <v>3.4839256845149</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>2.6420985921286002</v>
       </c>
@@ -6265,7 +6290,7 @@
         <v>2.0302970430243001</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>5.7208774122409496</v>
       </c>
@@ -6273,7 +6298,7 @@
         <v>3.5963983183042298</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>3.3999164197593901</v>
       </c>
@@ -6281,7 +6306,7 @@
         <v>3.26118210444504</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>1.6116063133813401</v>
       </c>
@@ -6289,7 +6314,7 @@
         <v>3.4811377671044101</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>4.7836854904890096</v>
       </c>
@@ -6297,7 +6322,7 @@
         <v>3.3934391526521401</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>4.5914891059510401</v>
       </c>
@@ -6305,7 +6330,7 @@
         <v>4.2296633451480297</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>5.6718397387303403</v>
       </c>
@@ -6313,7 +6338,7 @@
         <v>4.3213642972623703</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>6.0527314008213597</v>
       </c>
@@ -6321,7 +6346,7 @@
         <v>4.4004551453344503</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>4.3157941773533803</v>
       </c>
@@ -6329,7 +6354,7 @@
         <v>3.3575973824697001</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>6.4958547628484702</v>
       </c>
@@ -6337,7 +6362,7 @@
         <v>5.3357180039434402</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>6.5461325836367896</v>
       </c>
@@ -6345,7 +6370,7 @@
         <v>5.5883893357118604</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>4.6882196255028203</v>
       </c>
@@ -6353,7 +6378,7 @@
         <v>2.9942042835612601</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>3.1265240306965998</v>
       </c>
@@ -6361,7 +6386,7 @@
         <v>2.4133817526727501</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>6.7815641239285496</v>
       </c>
@@ -6369,7 +6394,7 @@
         <v>4.9853665901916902</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>7.1195053760893598</v>
       </c>
@@ -6377,7 +6402,7 @@
         <v>4.9819811245677199</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>7.2977222828194499</v>
       </c>
@@ -6385,7 +6410,7 @@
         <v>6.3842744969558796</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>5.8734935433603797</v>
       </c>
@@ -6393,7 +6418,7 @@
         <v>3.2674754397200001</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>1.5873153456486799</v>
       </c>
@@ -6401,7 +6426,7 @@
         <v>1.3127589772339601</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>6.0018068631179604</v>
       </c>
@@ -6409,7 +6434,7 @@
         <v>4.0395479860187598</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>5.7232260955497596</v>
       </c>
@@ -6417,7 +6442,7 @@
         <v>4.4259950843460798</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>5.2378930519334999</v>
       </c>
@@ -6425,7 +6450,7 @@
         <v>3.3427493957310901</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>6.4499453399330404</v>
       </c>
@@ -6433,7 +6458,7 @@
         <v>3.4923101856776602</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>4.17233666824177</v>
       </c>
@@ -6441,7 +6466,7 @@
         <v>3.7512254627326902</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>6.5227716802619398</v>
       </c>
@@ -6449,7 +6474,7 @@
         <v>5.3865593289504403</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>7.4481165572069603</v>
       </c>
@@ -6457,7 +6482,7 @@
         <v>5.9634220863588503</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>7.2251918641850397</v>
       </c>
@@ -6465,7 +6490,7 @@
         <v>4.9852549266447799</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>3.2753348071128099</v>
       </c>
@@ -6473,7 +6498,7 @@
         <v>2.79816072820568</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>2.0318177640438102</v>
       </c>
@@ -6481,7 +6506,7 @@
         <v>2.9673232683245501</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>2.8401407478377201</v>
       </c>
@@ -6489,7 +6514,7 @@
         <v>1.2287731839405001</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>6.1015647025778899</v>
       </c>
@@ -6497,7 +6522,7 @@
         <v>3.9617296397724</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>6.0743277990259203</v>
       </c>
@@ -6505,7 +6530,7 @@
         <v>4.64914365195858</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>4.2438725517131397</v>
       </c>
@@ -6513,7 +6538,7 @@
         <v>4.7541683951592599</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>5.3185755922459101</v>
       </c>
@@ -6521,7 +6546,7 @@
         <v>2.9619566626541398</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>6.0523813208565098</v>
       </c>
@@ -6529,7 +6554,7 @@
         <v>4.6334410547487401</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>3.1540425913408399</v>
       </c>
@@ -6537,7 +6562,7 @@
         <v>1.29413657590318</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>2.4823816046118701</v>
       </c>
@@ -6545,7 +6570,7 @@
         <v>0.54836518928340094</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>3.4351017507724499</v>
       </c>
@@ -6553,7 +6578,7 @@
         <v>2.11513648497449</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>5.2492087888531396</v>
       </c>
@@ -6561,7 +6586,7 @@
         <v>4.5687045599794596</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>3.4717985847964901</v>
       </c>
@@ -6569,7 +6594,7 @@
         <v>2.5350021130469802</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>6.0876096230931598</v>
       </c>
@@ -6577,7 +6602,7 @@
         <v>4.3974512750373904</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>3.4408468762412698</v>
       </c>
@@ -6585,7 +6610,7 @@
         <v>2.0706637675343802</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>4.5305454069748503</v>
       </c>
@@ -6599,16 +6624,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -6616,7 +6641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4.17</v>
       </c>
@@ -6624,7 +6649,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5.58</v>
       </c>
@@ -6632,7 +6657,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5.18</v>
       </c>
@@ -6640,7 +6665,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6.11</v>
       </c>
@@ -6648,7 +6673,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4.5</v>
       </c>
@@ -6656,7 +6681,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4.6100000000000003</v>
       </c>
@@ -6664,7 +6689,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5.17</v>
       </c>
@@ -6672,7 +6697,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4.53</v>
       </c>
@@ -6680,7 +6705,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5.33</v>
       </c>
@@ -6688,7 +6713,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5.14</v>
       </c>
@@ -6696,7 +6721,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4.8099999999999996</v>
       </c>
@@ -6704,7 +6729,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4.17</v>
       </c>
@@ -6712,7 +6737,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4.41</v>
       </c>
@@ -6720,7 +6745,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3.59</v>
       </c>
@@ -6728,7 +6753,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5.87</v>
       </c>
@@ -6736,7 +6761,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3.83</v>
       </c>
@@ -6744,7 +6769,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6.03</v>
       </c>
@@ -6752,7 +6777,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4.8899999999999997</v>
       </c>
@@ -6760,7 +6785,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4.32</v>
       </c>
@@ -6768,7 +6793,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4.6900000000000004</v>
       </c>
@@ -6776,7 +6801,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6.31</v>
       </c>
@@ -6784,7 +6809,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5.12</v>
       </c>
@@ -6792,7 +6817,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5.54</v>
       </c>
@@ -6800,7 +6825,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5.5</v>
       </c>
@@ -6808,7 +6833,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5.37</v>
       </c>
@@ -6816,7 +6841,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5.29</v>
       </c>
@@ -6824,7 +6849,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4.92</v>
       </c>
@@ -6832,7 +6857,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6.15</v>
       </c>
@@ -6840,7 +6865,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5.8</v>
       </c>
@@ -6848,7 +6873,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5.26</v>
       </c>
@@ -6859,4 +6884,206 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8FADA5-6111-C641-ADA4-3BA9219635EB}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>